--- a/out/report_messy_test.xlsx
+++ b/out/report_messy_test.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-13T18:10:58+00:00</t>
+          <t>2026-01-13T18:25:46+00:00</t>
         </is>
       </c>
     </row>
